--- a/session4/quiz.xlsx
+++ b/session4/quiz.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
